--- a/documentation/journal de bord.xlsx
+++ b/documentation/journal de bord.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Journal de bord du pre-TPI</t>
   </si>
@@ -39,6 +39,48 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>Meeting</t>
+  </si>
+  <si>
+    <t>Discussion avec M. Glassey du projet de pre-TPI. Revue et changement de l'idée de projet pour se tourner vers une web-app de messagerie instantanée.</t>
+  </si>
+  <si>
+    <t>45m</t>
+  </si>
+  <si>
+    <t>15m</t>
+  </si>
+  <si>
+    <t>Administration</t>
+  </si>
+  <si>
+    <t>Création du repository sur github.</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>Configuration du repository sur github et premier commit. Ajout d'un "project" au repository.</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>Planification</t>
+  </si>
+  <si>
+    <t>Création de la planification initiale sur MSProject</t>
+  </si>
+  <si>
+    <t>Système</t>
+  </si>
+  <si>
+    <t>Installation du raspberry pi en classe</t>
+  </si>
+  <si>
+    <t>Finalisation de la planification initiale</t>
   </si>
 </sst>
 </file>
@@ -99,14 +141,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,36 +456,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="12.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2"/>
+    <col min="3" max="3" width="14.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="67.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>43502</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>43503</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>43504</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
